--- a/Input01.xlsx
+++ b/Input01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8CA54E-19DD-4DAD-B523-A7B0FA2FD13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D27D6-B8C5-43D0-9AC0-C93FE3E59260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25050" yWindow="1560" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="2430" windowWidth="22995" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E51"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -778,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>14</v>
@@ -829,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>21</v>
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -999,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
         <v>20</v>
@@ -1203,7 +1203,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
         <v>19</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -1356,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>12</v>
